--- a/04-Arm/Couples.xlsx
+++ b/04-Arm/Couples.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\guithub\linorobot\04-Arm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD8CE78-5FF4-4346-992C-62673CDBE6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B23B06E-C1ED-455D-982A-CCDD8457B8A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="12735" xr2:uid="{955D14AD-2A14-43CC-A05A-257B047BF36F}"/>
+    <workbookView xWindow="6825" yWindow="165" windowWidth="21600" windowHeight="12735" activeTab="1" xr2:uid="{955D14AD-2A14-43CC-A05A-257B047BF36F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Axe2" sheetId="1" r:id="rId1"/>
+    <sheet name="Axe6" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>distance (m)</t>
   </si>
@@ -51,6 +52,33 @@
   </si>
   <si>
     <t>N.m</t>
+  </si>
+  <si>
+    <t>Payload (kg)</t>
+  </si>
+  <si>
+    <t>Bras de levier (m)</t>
+  </si>
+  <si>
+    <t>Couple (kg.cm)</t>
+  </si>
+  <si>
+    <t>Couple (N.m)</t>
+  </si>
+  <si>
+    <t>Nena 17 x 40mm</t>
+  </si>
+  <si>
+    <t>Couple moteur (N.m)</t>
+  </si>
+  <si>
+    <t>Moteur</t>
+  </si>
+  <si>
+    <t>Réduction</t>
+  </si>
+  <si>
+    <t>Couple Sortie (N.m)</t>
   </si>
 </sst>
 </file>
@@ -404,7 +432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42D5FF9-366B-45EA-AFB9-7C6FE57ABAC9}">
   <dimension ref="C6:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -524,4 +552,101 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{278D09C1-EBA7-4A84-B0A9-8B2085BD6613}">
+  <dimension ref="A4:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.5</v>
+      </c>
+      <c r="B5">
+        <v>0.1</v>
+      </c>
+      <c r="C5">
+        <f>A5*B5*100</f>
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <f>C5*10/100</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>0.1</v>
+      </c>
+      <c r="C6">
+        <f>A6*B6*100</f>
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <f>C6*10/100</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>0.4</v>
+      </c>
+      <c r="C9">
+        <f>5+2/11</f>
+        <v>5.1818181818181817</v>
+      </c>
+      <c r="D9">
+        <f>C9*B9*0.9</f>
+        <v>1.8654545454545455</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>